--- a/output/HG2A_30s/DropletsSize.xlsx
+++ b/output/HG2A_30s/DropletsSize.xlsx
@@ -415,40 +415,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D2">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="E2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H2">
         <v>864</v>
       </c>
       <c r="I2">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="J2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L2">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="M2">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -456,40 +456,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C3">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D3">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E3">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F3">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G3">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H3">
         <v>824</v>
       </c>
       <c r="I3">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J3">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K3">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L3">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="M3">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -497,40 +497,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D4">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E4">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F4">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G4">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="H4">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I4">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J4">
         <v>653</v>
       </c>
       <c r="K4">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="L4">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="M4">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -538,40 +538,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C5">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="D5">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E5">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F5">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G5">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H5">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I5">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="J5">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="K5">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L5">
         <v>616</v>
       </c>
       <c r="M5">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -579,40 +579,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C6">
         <v>445</v>
       </c>
       <c r="D6">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E6">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F6">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G6">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="H6">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="I6">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J6">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="K6">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L6">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M6">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="I7">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J7">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="K7">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -661,40 +661,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C8">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D8">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E8">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F8">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G8">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H8">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="I8">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J8">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K8">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L8">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M8">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -702,40 +702,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C9">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D9">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E9">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F9">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G9">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H9">
         <v>729</v>
       </c>
       <c r="I9">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="J9">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="K9">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="L9">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="M9">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -746,37 +746,37 @@
         <v>331</v>
       </c>
       <c r="C10">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D10">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E10">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F10">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G10">
         <v>452</v>
       </c>
       <c r="H10">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I10">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J10">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K10">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L10">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M10">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D11">
         <v>381</v>
       </c>
       <c r="E11">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F11">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G11">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H11">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I11">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="J11">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K11">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L11">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M11">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -846,19 +846,19 @@
         <v>572</v>
       </c>
       <c r="I12">
+        <v>544</v>
+      </c>
+      <c r="J12">
+        <v>499</v>
+      </c>
+      <c r="K12">
+        <v>528</v>
+      </c>
+      <c r="L12">
         <v>542</v>
       </c>
-      <c r="J12">
-        <v>500</v>
-      </c>
-      <c r="K12">
-        <v>530</v>
-      </c>
-      <c r="L12">
-        <v>532</v>
-      </c>
       <c r="M12">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="I13">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J13">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K13">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="L13">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -910,37 +910,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D14">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E14">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F14">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G14">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H14">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I14">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="J14">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K14">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L14">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M14">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -951,37 +951,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D15">
+        <v>359</v>
+      </c>
+      <c r="E15">
+        <v>362</v>
+      </c>
+      <c r="F15">
         <v>366</v>
       </c>
-      <c r="E15">
-        <v>381</v>
-      </c>
-      <c r="F15">
-        <v>363</v>
-      </c>
       <c r="G15">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H15">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I15">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J15">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K15">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L15">
         <v>502</v>
       </c>
       <c r="M15">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -995,34 +995,34 @@
         <v>283</v>
       </c>
       <c r="D16">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E16">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F16">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G16">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="H16">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I16">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J16">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K16">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L16">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M16">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1048,22 +1048,22 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I17">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J17">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K17">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L17">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M17">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1089,22 +1089,22 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I18">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J18">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K18">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L18">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M18">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1130,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I19">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J19">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K19">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L19">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M19">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1156,37 +1156,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D20">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E20">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G20">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H20">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="I20">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J20">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K20">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L20">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="M20">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1197,37 +1197,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D21">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E21">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F21">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G21">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H21">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="I21">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J21">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K21">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L21">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="M21">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1235,40 +1235,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C22">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E22">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G22">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H22">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I22">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J22">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K22">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L22">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M22">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1279,37 +1279,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D23">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E23">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F23">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23">
         <v>330</v>
       </c>
       <c r="H23">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I23">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J23">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="K23">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L23">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M23">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
